--- a/assets/images/Images.xlsx
+++ b/assets/images/Images.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertattard/work/projects/albertattard/java-boot-camp/assets/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CE118E-27C4-8444-836F-51B0B0E129B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9F7C1F-7585-5140-80B5-140FC53F0B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{68FCA1C1-98C3-E44C-ABCC-F479EE7F694B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sets!$A$3:$A$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sets!$B$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sets!$B$3:$B$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sets!$A$3:$A$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sets!$B$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sets!$B$3:$B$7</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,24 +41,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>TreeSet</t>
+    <t>Poor Implementation</t>
   </si>
   <si>
-    <t>HashSet</t>
-  </si>
-  <si>
-    <t>LinkedHashSet</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>contains</t>
-  </si>
-  <si>
-    <t>iterate</t>
+    <t>Size</t>
   </si>
 </sst>
 </file>
@@ -120,31 +116,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>add()</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -185,11 +156,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sets!$F$3</c:f>
+              <c:f>Sets!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HashSet</c:v>
+                  <c:v>Poor Implementation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -204,46 +175,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sets!$G$2:$J$2</c:f>
+              <c:f>Sets!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sets!$G$3:$J$3</c:f>
+              <c:f>Sets!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>308</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>178</c:v>
+                  <c:v>2527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>216</c:v>
+                  <c:v>15355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>711</c:v>
+                  <c:v>92971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>494658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -251,157 +240,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D29-6747-BBF9-17577B94DCBD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sets!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LinkedHashSet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sets!$G$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sets!$G$4:$J$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1615</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6D29-6747-BBF9-17577B94DCBD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sets!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TreeSet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sets!$G$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sets!$G$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>746</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1975</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6D29-6747-BBF9-17577B94DCBD}"/>
+              <c16:uniqueId val="{00000000-34E3-8A44-9937-4C87C0223416}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -413,12 +252,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="913584128"/>
-        <c:axId val="913585760"/>
+        <c:axId val="1276947920"/>
+        <c:axId val="1278635408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="913584128"/>
+        <c:axId val="1276947920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +301,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913585760"/>
+        <c:crossAx val="1278635408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -469,7 +309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="913585760"/>
+        <c:axId val="1278635408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +360,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913584128"/>
+        <c:crossAx val="1276947920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -532,37 +372,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -648,7 +457,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -756,11 +565,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -771,11 +575,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -807,9 +606,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1167,23 +963,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146843</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>456406</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591343</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7245124-A9B2-FE4A-950A-715E065C8B0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2082EB3D-91BE-864D-B115-2D56A1425992}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,294 +1297,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94955D83-B917-C94B-B854-E6A25166E4AC}">
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1000</v>
       </c>
-      <c r="J2">
+      <c r="B3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>308</v>
-      </c>
-      <c r="C3">
-        <v>91</v>
-      </c>
-      <c r="D3">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <f>B3</f>
-        <v>308</v>
-      </c>
-      <c r="H3">
-        <f>B4</f>
-        <v>178</v>
-      </c>
-      <c r="I3">
-        <f>B5</f>
-        <v>216</v>
-      </c>
-      <c r="J3">
-        <f>B6</f>
-        <v>711</v>
+      <c r="B4">
+        <v>2527</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>100</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>25000</v>
       </c>
-      <c r="B4">
-        <v>178</v>
-      </c>
-      <c r="C4">
-        <v>75</v>
-      </c>
-      <c r="D4">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <f>B9</f>
-        <v>350</v>
-      </c>
-      <c r="H4">
-        <f>B10</f>
-        <v>270</v>
-      </c>
-      <c r="I4">
-        <f>B11</f>
-        <v>303</v>
-      </c>
-      <c r="J4">
-        <f>B12</f>
-        <v>1615</v>
+      <c r="B5">
+        <v>15355</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1000</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>50000</v>
       </c>
-      <c r="B5">
-        <v>216</v>
-      </c>
-      <c r="C5">
-        <v>110</v>
-      </c>
-      <c r="D5">
-        <v>72</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f>B15</f>
-        <v>746</v>
-      </c>
-      <c r="H5">
-        <f>B16</f>
-        <v>501</v>
-      </c>
-      <c r="I5">
-        <f>B17</f>
-        <v>714</v>
-      </c>
-      <c r="J5">
-        <f>B18</f>
-        <v>1975</v>
+      <c r="B6">
+        <v>92971</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10000</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>100000</v>
       </c>
-      <c r="B6">
-        <v>711</v>
-      </c>
-      <c r="C6">
-        <v>215</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>350</v>
-      </c>
-      <c r="C9">
-        <v>65</v>
-      </c>
-      <c r="D9">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>270</v>
-      </c>
-      <c r="C10">
-        <v>74</v>
-      </c>
-      <c r="D10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1000</v>
-      </c>
-      <c r="B11">
-        <v>303</v>
-      </c>
-      <c r="C11">
-        <v>111</v>
-      </c>
-      <c r="D11">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10000</v>
-      </c>
-      <c r="B12">
-        <v>1615</v>
-      </c>
-      <c r="C12">
-        <v>256</v>
-      </c>
-      <c r="D12">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>746</v>
-      </c>
-      <c r="C15">
-        <v>173</v>
-      </c>
-      <c r="D15">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>100</v>
-      </c>
-      <c r="B16">
-        <v>501</v>
-      </c>
-      <c r="C16">
-        <v>264</v>
-      </c>
-      <c r="D16">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1000</v>
-      </c>
-      <c r="B17">
-        <v>714</v>
-      </c>
-      <c r="C17">
-        <v>410</v>
-      </c>
-      <c r="D17">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>10000</v>
-      </c>
-      <c r="B18">
-        <v>1975</v>
-      </c>
-      <c r="C18">
-        <v>552</v>
-      </c>
-      <c r="D18">
-        <v>69</v>
+      <c r="B7">
+        <v>494658</v>
       </c>
     </row>
   </sheetData>

--- a/assets/images/Images.xlsx
+++ b/assets/images/Images.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertattard/work/projects/albertattard/java-boot-camp/assets/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9F7C1F-7585-5140-80B5-140FC53F0B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5B9E21-98E0-CE4B-8FB4-38312A5EAB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{68FCA1C1-98C3-E44C-ABCC-F479EE7F694B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sets!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sets!$B$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sets!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sets!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sets!$B$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sets!$B$3:$B$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,12 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Poor Implementation</t>
   </si>
   <si>
     <t>Size</t>
+  </si>
+  <si>
+    <t>Default Implementation</t>
   </si>
 </sst>
 </file>
@@ -116,6 +111,47 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>HashSet</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Performance vs. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>hashCode()</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> method implementation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -244,7 +280,77 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sets!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default Implementation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sets!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-34E3-8A44-9937-4C87C0223416}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -329,6 +435,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (in milliseconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -372,7 +538,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
@@ -963,16 +1160,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>146843</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1468437</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>591343</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>436562</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>198437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1297,64 +1494,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94955D83-B917-C94B-B854-E6A25166E4AC}">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
         <v>102</v>
       </c>
+      <c r="C3">
+        <v>78</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10000</v>
       </c>
       <c r="B4">
         <v>2527</v>
       </c>
+      <c r="C4">
+        <v>235</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>25000</v>
       </c>
       <c r="B5">
         <v>15355</v>
       </c>
+      <c r="C5">
+        <v>296</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50000</v>
       </c>
       <c r="B6">
         <v>92971</v>
       </c>
+      <c r="C6">
+        <v>415</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100000</v>
       </c>
       <c r="B7">
         <v>494658</v>
+      </c>
+      <c r="C7">
+        <v>657</v>
       </c>
     </row>
   </sheetData>

--- a/assets/images/Images.xlsx
+++ b/assets/images/Images.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertattard/work/projects/albertattard/java-boot-camp/assets/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5B9E21-98E0-CE4B-8FB4-38312A5EAB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AD9237-3532-8A46-A2ED-0C846DC3AA3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{68FCA1C1-98C3-E44C-ABCC-F479EE7F694B}"/>
   </bookViews>
@@ -277,75 +277,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-34E3-8A44-9937-4C87C0223416}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sets!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Default Implementation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sets!$C$3:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>657</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-34E3-8A44-9937-4C87C0223416}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1497,7 +1428,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
